--- a/medicine/Enfance/Philippe_Godard/Philippe_Godard.xlsx
+++ b/medicine/Enfance/Philippe_Godard/Philippe_Godard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Godard, né en 1959[1], est un écrivain et essayiste français. Il écrit notamment, pour la jeunesse, des ouvrages documentaires sur des sujets de société et, pour les adultes, des essais. Il est par ailleurs intervenant à l'Institut Régional du Travail Social de Franche-Comté et a été directeur de collections chez différents éditeurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Godard, né en 1959, est un écrivain et essayiste français. Il écrit notamment, pour la jeunesse, des ouvrages documentaires sur des sujets de société et, pour les adultes, des essais. Il est par ailleurs intervenant à l'Institut Régional du Travail Social de Franche-Comté et a été directeur de collections chez différents éditeurs.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit dans le Jura et y travaille ainsi que dans le Doubs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit dans le Jura et y travaille ainsi que dans le Doubs.
 Il a travaillé aux éditions Syros, Autrement et La Martinière. 
 Il a également travaillé pendant 8 ans pour l'encyclopédie Hachette. Il y était membre du comité de rédaction et rédigeait des articles pour l'encyclopédie.
 Il a dirigé des collections de livres documentaires jeunesse, notamment chez Autrement jeunesse, Syros et Desmaret.
